--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_16ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_16ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1777,28 +1777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.48975442572133</v>
+        <v>121.0232256076549</v>
       </c>
       <c r="AB2" t="n">
-        <v>118.3390976638934</v>
+        <v>165.5893164442158</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.0449802728489</v>
+        <v>149.7857044888909</v>
       </c>
       <c r="AD2" t="n">
-        <v>86489.75442572133</v>
+        <v>121023.2256076549</v>
       </c>
       <c r="AE2" t="n">
-        <v>118339.0976638934</v>
+        <v>165589.3164442158</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.879288671698228e-06</v>
+        <v>5.592632430469105e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.838541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>107044.9802728489</v>
+        <v>149785.7044888909</v>
       </c>
     </row>
     <row r="3">
@@ -1883,28 +1883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.76338605550232</v>
+        <v>107.2115163828642</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.55807489513528</v>
+        <v>146.69152655326</v>
       </c>
       <c r="AC3" t="n">
-        <v>90.05639195780407</v>
+        <v>132.6914931419073</v>
       </c>
       <c r="AD3" t="n">
-        <v>72763.38605550233</v>
+        <v>107211.5163828642</v>
       </c>
       <c r="AE3" t="n">
-        <v>99558.07489513527</v>
+        <v>146691.52655326</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.574515499417932e-06</v>
+        <v>6.594916207802765e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.640625</v>
       </c>
       <c r="AH3" t="n">
-        <v>90056.39195780407</v>
+        <v>132691.4931419073</v>
       </c>
     </row>
     <row r="4">
@@ -1989,28 +1989,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>72.0431249955307</v>
+        <v>98.02856923655246</v>
       </c>
       <c r="AB4" t="n">
-        <v>98.57258193720723</v>
+        <v>134.1270131446466</v>
       </c>
       <c r="AC4" t="n">
-        <v>89.1649530646323</v>
+        <v>121.3261192586026</v>
       </c>
       <c r="AD4" t="n">
-        <v>72043.1249955307</v>
+        <v>98028.56923655246</v>
       </c>
       <c r="AE4" t="n">
-        <v>98572.58193720723</v>
+        <v>134127.0131446466</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.64019850405796e-06</v>
+        <v>6.689609058211257e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.549479166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>89164.9530646323</v>
+        <v>121326.1192586026</v>
       </c>
     </row>
   </sheetData>
@@ -2286,28 +2286,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.98876462862233</v>
+        <v>105.5731179940624</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.49820368499311</v>
+        <v>144.4497975966669</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.09767336841894</v>
+        <v>130.6637116506443</v>
       </c>
       <c r="AD2" t="n">
-        <v>71988.76462862233</v>
+        <v>105573.1179940624</v>
       </c>
       <c r="AE2" t="n">
-        <v>98498.20368499312</v>
+        <v>144449.7975966669</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.518527784690333e-06</v>
+        <v>6.614954694502901e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>89097.67336841894</v>
+        <v>130663.7116506443</v>
       </c>
     </row>
     <row r="3">
@@ -2392,28 +2392,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>69.23328572614183</v>
+        <v>94.40030504513</v>
       </c>
       <c r="AB3" t="n">
-        <v>94.72803588747149</v>
+        <v>129.1626620102258</v>
       </c>
       <c r="AC3" t="n">
-        <v>85.68732509402784</v>
+        <v>116.8355588289388</v>
       </c>
       <c r="AD3" t="n">
-        <v>69233.28572614182</v>
+        <v>94400.30504512999</v>
       </c>
       <c r="AE3" t="n">
-        <v>94728.03588747149</v>
+        <v>129162.6620102258</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.998124850150277e-06</v>
+        <v>7.317066756396859e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.2890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>85687.32509402784</v>
+        <v>116835.5588289388</v>
       </c>
     </row>
   </sheetData>
@@ -2689,28 +2689,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.37445182891587</v>
+        <v>85.59106668561454</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.34347675889585</v>
+        <v>117.1094734505749</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.19841511736904</v>
+        <v>105.9327096686607</v>
       </c>
       <c r="AD2" t="n">
-        <v>62374.45182891587</v>
+        <v>85591.06668561454</v>
       </c>
       <c r="AE2" t="n">
-        <v>85343.47675889585</v>
+        <v>117109.4734505749</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.814528350618518e-06</v>
+        <v>8.995793062590956e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.028645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>77198.41511736903</v>
+        <v>105932.7096686607</v>
       </c>
     </row>
   </sheetData>
@@ -2986,28 +2986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.9479380155781</v>
+        <v>88.92708320479097</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.86463409368309</v>
+        <v>121.6739584267716</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.38351813810065</v>
+        <v>110.0615666050256</v>
       </c>
       <c r="AD2" t="n">
-        <v>64947.9380155781</v>
+        <v>88927.08320479098</v>
       </c>
       <c r="AE2" t="n">
-        <v>88864.6340936831</v>
+        <v>121673.9584267716</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.52251822516265e-06</v>
+        <v>8.346148484285136e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.080729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>80383.51813810066</v>
+        <v>110061.5666050256</v>
       </c>
     </row>
     <row r="3">
@@ -3092,28 +3092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>64.98658978892793</v>
+        <v>88.9657349781408</v>
       </c>
       <c r="AB3" t="n">
-        <v>88.91751915517618</v>
+        <v>121.7268434882647</v>
       </c>
       <c r="AC3" t="n">
-        <v>80.4313559235495</v>
+        <v>110.1094043904744</v>
       </c>
       <c r="AD3" t="n">
-        <v>64986.58978892793</v>
+        <v>88965.7349781408</v>
       </c>
       <c r="AE3" t="n">
-        <v>88917.51915517618</v>
+        <v>121726.8434882647</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.517930024422014e-06</v>
+        <v>8.339214364179823e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.080729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>80431.3559235495</v>
+        <v>110109.4043904744</v>
       </c>
     </row>
   </sheetData>
@@ -3389,28 +3389,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.58169016703186</v>
+        <v>83.17287373243445</v>
       </c>
       <c r="AB2" t="n">
-        <v>82.89054116204483</v>
+        <v>113.8007951688918</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.97958425116397</v>
+        <v>102.9398069984213</v>
       </c>
       <c r="AD2" t="n">
-        <v>60581.69016703186</v>
+        <v>83172.87373243445</v>
       </c>
       <c r="AE2" t="n">
-        <v>82890.54116204483</v>
+        <v>113800.7951688918</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.894369915833901e-06</v>
+        <v>9.3159808626118e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.184895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>74979.58425116396</v>
+        <v>102939.8069984213</v>
       </c>
     </row>
   </sheetData>
@@ -3686,28 +3686,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.88346438395891</v>
+        <v>107.3061018498306</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.0365684135828</v>
+        <v>146.8209425619797</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.3439555685306</v>
+        <v>132.8085578683913</v>
       </c>
       <c r="AD2" t="n">
-        <v>81883.46438395891</v>
+        <v>107306.1018498306</v>
       </c>
       <c r="AE2" t="n">
-        <v>112036.5684135828</v>
+        <v>146820.9425619797</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.356328160447152e-06</v>
+        <v>6.35103109510181e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.1484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>101343.9555685306</v>
+        <v>132808.5578683913</v>
       </c>
     </row>
     <row r="3">
@@ -3792,28 +3792,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>70.14067523466508</v>
+        <v>95.47797184596514</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.96956624423224</v>
+        <v>130.6371732704315</v>
       </c>
       <c r="AC3" t="n">
-        <v>86.81036553603856</v>
+        <v>118.1693448039605</v>
       </c>
       <c r="AD3" t="n">
-        <v>70140.67523466508</v>
+        <v>95477.97184596515</v>
       </c>
       <c r="AE3" t="n">
-        <v>95969.56624423224</v>
+        <v>130637.1732704315</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.879978676437797e-06</v>
+        <v>7.114454002544425e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.380208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>86810.36553603856</v>
+        <v>118169.3448039605</v>
       </c>
     </row>
     <row r="4">
@@ -3898,28 +3898,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>70.08440118654931</v>
+        <v>95.42169779784938</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.89256960896449</v>
+        <v>130.5601766351638</v>
       </c>
       <c r="AC4" t="n">
-        <v>86.7407173515753</v>
+        <v>118.0996966194972</v>
       </c>
       <c r="AD4" t="n">
-        <v>70084.40118654931</v>
+        <v>95421.69779784938</v>
       </c>
       <c r="AE4" t="n">
-        <v>95892.56960896449</v>
+        <v>130560.1766351638</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.878614691636286e-06</v>
+        <v>7.112465467804023e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.380208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>86740.71735157529</v>
+        <v>118099.6966194972</v>
       </c>
     </row>
   </sheetData>
@@ -4195,28 +4195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.50309305878078</v>
+        <v>81.7239276558913</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.41475701419034</v>
+        <v>111.818283223977</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.6446468711042</v>
+        <v>101.1465032110555</v>
       </c>
       <c r="AD2" t="n">
-        <v>59503.09305878077</v>
+        <v>81723.9276558913</v>
       </c>
       <c r="AE2" t="n">
-        <v>81414.75701419034</v>
+        <v>111818.283223977</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.900657289900779e-06</v>
+        <v>9.454239029116954e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.315104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>73644.6468711042</v>
+        <v>101146.5032110555</v>
       </c>
     </row>
   </sheetData>
@@ -4492,28 +4492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.43774044886472</v>
+        <v>102.2852508821843</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.00777985900658</v>
+        <v>139.9511927637377</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.94037069354287</v>
+        <v>126.594447349137</v>
       </c>
       <c r="AD2" t="n">
-        <v>69437.74044886472</v>
+        <v>102285.2508821843</v>
       </c>
       <c r="AE2" t="n">
-        <v>95007.77985900658</v>
+        <v>139951.1927637377</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.826323346162969e-06</v>
+        <v>7.166333387697236e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.705729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>85940.37069354288</v>
+        <v>126594.447349137</v>
       </c>
     </row>
     <row r="3">
@@ -4598,28 +4598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>67.25613921939708</v>
+        <v>91.8705263392949</v>
       </c>
       <c r="AB3" t="n">
-        <v>92.02281681139688</v>
+        <v>125.7013071789442</v>
       </c>
       <c r="AC3" t="n">
-        <v>83.24028832977413</v>
+        <v>113.7045508447116</v>
       </c>
       <c r="AD3" t="n">
-        <v>67256.13921939708</v>
+        <v>91870.5263392949</v>
       </c>
       <c r="AE3" t="n">
-        <v>92022.81681139689</v>
+        <v>125701.3071789442</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.237537429827808e-06</v>
+        <v>7.776921822390801e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.184895833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>83240.28832977414</v>
+        <v>113704.5508447116</v>
       </c>
     </row>
   </sheetData>
@@ -4895,28 +4895,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.81066962680399</v>
+        <v>104.1593532588187</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.88628212962271</v>
+        <v>142.5154223150093</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.63959134394648</v>
+        <v>128.9139504309547</v>
       </c>
       <c r="AD2" t="n">
-        <v>70810.66962680398</v>
+        <v>104159.3532588187</v>
       </c>
       <c r="AE2" t="n">
-        <v>96886.28212962272</v>
+        <v>142515.4223150093</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.668700194251324e-06</v>
+        <v>6.865055088005904e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>87639.59134394648</v>
+        <v>128913.9504309547</v>
       </c>
     </row>
     <row r="3">
@@ -5001,28 +5001,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>68.71165492686133</v>
+        <v>93.70192194578053</v>
       </c>
       <c r="AB3" t="n">
-        <v>94.01431761516959</v>
+        <v>128.2071034432085</v>
       </c>
       <c r="AC3" t="n">
-        <v>85.04172309192431</v>
+        <v>115.9711974304224</v>
       </c>
       <c r="AD3" t="n">
-        <v>68711.65492686133</v>
+        <v>93701.92194578053</v>
       </c>
       <c r="AE3" t="n">
-        <v>94014.3176151696</v>
+        <v>128207.1034432085</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.043283371221304e-06</v>
+        <v>7.415858103394548e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.2890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>85041.72309192432</v>
+        <v>115971.1974304224</v>
       </c>
     </row>
   </sheetData>
@@ -5298,28 +5298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.06746453157072</v>
+        <v>119.395445364887</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.3930578837158</v>
+        <v>163.3621157034659</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.2846677980069</v>
+        <v>147.7710646609416</v>
       </c>
       <c r="AD2" t="n">
-        <v>85067.46453157072</v>
+        <v>119395.445364887</v>
       </c>
       <c r="AE2" t="n">
-        <v>116393.0578837158</v>
+        <v>163362.1157034659</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.011047174072447e-06</v>
+        <v>5.803072774386135e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.643229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>105284.6677980069</v>
+        <v>147771.0646609416</v>
       </c>
     </row>
     <row r="3">
@@ -5404,28 +5404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.01328971243935</v>
+        <v>97.84461619199816</v>
       </c>
       <c r="AB3" t="n">
-        <v>98.53175998664187</v>
+        <v>133.875320473652</v>
       </c>
       <c r="AC3" t="n">
-        <v>89.12802710373494</v>
+        <v>121.0984477828748</v>
       </c>
       <c r="AD3" t="n">
-        <v>72013.28971243935</v>
+        <v>97844.61619199815</v>
       </c>
       <c r="AE3" t="n">
-        <v>98531.75998664188</v>
+        <v>133875.320473652</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.653387866470642e-06</v>
+        <v>6.732393628060288e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.588541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>89128.02710373493</v>
+        <v>121098.4477828748</v>
       </c>
     </row>
     <row r="4">
@@ -5510,28 +5510,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>71.31001933782757</v>
+        <v>96.97075361679418</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.56951443399932</v>
+        <v>132.6796631461626</v>
       </c>
       <c r="AC4" t="n">
-        <v>88.25761691611616</v>
+        <v>120.016902312605</v>
       </c>
       <c r="AD4" t="n">
-        <v>71310.01933782757</v>
+        <v>96970.75361679419</v>
       </c>
       <c r="AE4" t="n">
-        <v>97569.51443399931</v>
+        <v>132679.6631461626</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.743312269472214e-06</v>
+        <v>6.862493782001265e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.458333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>88257.61691611617</v>
+        <v>120016.902312605</v>
       </c>
     </row>
   </sheetData>
@@ -5807,28 +5807,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.99201723316799</v>
+        <v>90.19419358674388</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.29318934071306</v>
+        <v>123.4076747523235</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.67573407734442</v>
+        <v>111.6298194777534</v>
       </c>
       <c r="AD2" t="n">
-        <v>65992.01723316798</v>
+        <v>90194.19358674387</v>
       </c>
       <c r="AE2" t="n">
-        <v>90293.18934071306</v>
+        <v>123407.6747523235</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.372509491327798e-06</v>
+        <v>8.067814841882947e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>81675.73407734442</v>
+        <v>111629.8194777534</v>
       </c>
     </row>
     <row r="3">
@@ -5913,28 +5913,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>65.78576499248831</v>
+        <v>89.98794134606422</v>
       </c>
       <c r="AB3" t="n">
-        <v>90.01098592580863</v>
+        <v>123.125471337419</v>
       </c>
       <c r="AC3" t="n">
-        <v>81.4204637602834</v>
+        <v>111.3745491606924</v>
       </c>
       <c r="AD3" t="n">
-        <v>65785.76499248832</v>
+        <v>89987.94134606422</v>
       </c>
       <c r="AE3" t="n">
-        <v>90010.98592580862</v>
+        <v>123125.471337419</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.41506825585267e-06</v>
+        <v>8.131724683762277e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.119791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>81420.4637602834</v>
+        <v>111374.5491606924</v>
       </c>
     </row>
   </sheetData>
@@ -6210,28 +6210,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.29939957025825</v>
+        <v>86.78872420047867</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.60903106441428</v>
+        <v>118.7481612993317</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.34318669618582</v>
+        <v>107.4150034490456</v>
       </c>
       <c r="AD2" t="n">
-        <v>63299.39957025825</v>
+        <v>86788.72420047867</v>
       </c>
       <c r="AE2" t="n">
-        <v>86609.03106441429</v>
+        <v>118748.1612993317</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.705427816913779e-06</v>
+        <v>8.750681365170876e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.0546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>78343.18669618582</v>
+        <v>107415.0034490456</v>
       </c>
     </row>
   </sheetData>
@@ -10192,28 +10192,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.57825444814907</v>
+        <v>84.49778337240242</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.25408437678189</v>
+        <v>115.6135949891832</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.21299281523186</v>
+        <v>104.5795957481451</v>
       </c>
       <c r="AD2" t="n">
-        <v>61578.25444814908</v>
+        <v>84497.78337240242</v>
       </c>
       <c r="AE2" t="n">
-        <v>84254.08437678189</v>
+        <v>115613.5949891832</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.843333995830746e-06</v>
+        <v>9.130094106586438e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.106770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>76212.99281523186</v>
+        <v>104579.5957481451</v>
       </c>
     </row>
   </sheetData>
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.38719786184734</v>
+        <v>87.46888164393411</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.88793997592516</v>
+        <v>119.6787827198957</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.26354710806937</v>
+        <v>108.2568076673665</v>
       </c>
       <c r="AD2" t="n">
-        <v>58387.19786184734</v>
+        <v>87468.88164393412</v>
       </c>
       <c r="AE2" t="n">
-        <v>79887.93997592517</v>
+        <v>119678.7827198957</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.774462557982606e-06</v>
+        <v>9.410503812198564e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>72263.54710806937</v>
+        <v>108256.8076673665</v>
       </c>
     </row>
   </sheetData>
@@ -10786,28 +10786,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.9437324071811</v>
+        <v>103.0471741094938</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.70010037916445</v>
+        <v>140.9936897370225</v>
       </c>
       <c r="AC2" t="n">
-        <v>86.56661711493504</v>
+        <v>127.5374498744455</v>
       </c>
       <c r="AD2" t="n">
-        <v>69943.7324071811</v>
+        <v>103047.1741094938</v>
       </c>
       <c r="AE2" t="n">
-        <v>95700.10037916445</v>
+        <v>140993.6897370226</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.785570327194093e-06</v>
+        <v>7.07010974126625e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.692708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>86566.61711493504</v>
+        <v>127537.4498744455</v>
       </c>
     </row>
     <row r="3">
@@ -10892,28 +10892,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>67.78314762131907</v>
+        <v>92.58948319296177</v>
       </c>
       <c r="AB3" t="n">
-        <v>92.743892956876</v>
+        <v>126.6850156642685</v>
       </c>
       <c r="AC3" t="n">
-        <v>83.89254597996567</v>
+        <v>114.5943755728404</v>
       </c>
       <c r="AD3" t="n">
-        <v>67783.14762131908</v>
+        <v>92589.48319296176</v>
       </c>
       <c r="AE3" t="n">
-        <v>92743.89295687599</v>
+        <v>126685.0156642685</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.190260039507948e-06</v>
+        <v>7.667990554126024e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>83892.54597996568</v>
+        <v>114594.3755728404</v>
       </c>
     </row>
   </sheetData>
@@ -11189,28 +11189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.35628429541519</v>
+        <v>117.3016234576491</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.051745592665</v>
+        <v>160.4972561970813</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.1668070659607</v>
+        <v>145.1796233249899</v>
       </c>
       <c r="AD2" t="n">
-        <v>83356.2842954152</v>
+        <v>117301.6234576491</v>
       </c>
       <c r="AE2" t="n">
-        <v>114051.745592665</v>
+        <v>160497.2561970813</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.197452582955778e-06</v>
+        <v>6.095410585539518e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.356770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>103166.8070659607</v>
+        <v>145179.6233249899</v>
       </c>
     </row>
     <row r="3">
@@ -11295,28 +11295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>71.50650605134466</v>
+        <v>97.17879542803587</v>
       </c>
       <c r="AB3" t="n">
-        <v>97.83835622381524</v>
+        <v>132.9643151304602</v>
       </c>
       <c r="AC3" t="n">
-        <v>88.50080082283397</v>
+        <v>120.2743875110329</v>
       </c>
       <c r="AD3" t="n">
-        <v>71506.50605134465</v>
+        <v>97178.79542803587</v>
       </c>
       <c r="AE3" t="n">
-        <v>97838.35622381524</v>
+        <v>132964.3151304603</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.698546764028474e-06</v>
+        <v>6.823084029205181e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.575520833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>88500.80082283396</v>
+        <v>120274.3875110329</v>
       </c>
     </row>
     <row r="4">
@@ -11401,28 +11401,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>70.5978932372218</v>
+        <v>96.09959041332081</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.59515208636471</v>
+        <v>131.4876992181628</v>
       </c>
       <c r="AC4" t="n">
-        <v>87.37624634341334</v>
+        <v>118.9386977489612</v>
       </c>
       <c r="AD4" t="n">
-        <v>70597.8932372218</v>
+        <v>96099.59041332081</v>
       </c>
       <c r="AE4" t="n">
-        <v>96595.1520863647</v>
+        <v>131487.6992181628</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.838564653276226e-06</v>
+        <v>7.026413669604514e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.380208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>87376.24634341334</v>
+        <v>118938.6977489612</v>
       </c>
     </row>
   </sheetData>
@@ -11698,28 +11698,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.36517539529947</v>
+        <v>92.65723907575132</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.06727256694593</v>
+        <v>126.7777222522798</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.66225567637112</v>
+        <v>114.6782343742064</v>
       </c>
       <c r="AD2" t="n">
-        <v>64365.17539529947</v>
+        <v>92657.23907575132</v>
       </c>
       <c r="AE2" t="n">
-        <v>88067.27256694593</v>
+        <v>126777.7222522798</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.349309796842272e-06</v>
+        <v>8.916980724584087e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>79662.25567637112</v>
+        <v>114678.2343742064</v>
       </c>
     </row>
   </sheetData>
@@ -11995,28 +11995,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.10352124110086</v>
+        <v>87.8458928225276</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.70926580980499</v>
+        <v>120.1946260470063</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.33841658166595</v>
+        <v>108.7234196313286</v>
       </c>
       <c r="AD2" t="n">
-        <v>64103.52124110087</v>
+        <v>87845.8928225276</v>
       </c>
       <c r="AE2" t="n">
-        <v>87709.26580980499</v>
+        <v>120194.6260470063</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.632717688552731e-06</v>
+        <v>8.572470348498151e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.041666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>79338.41658166595</v>
+        <v>108723.4196313286</v>
       </c>
     </row>
   </sheetData>
@@ -12292,28 +12292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.52939270250513</v>
+        <v>91.94280481557779</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.39669428207803</v>
+        <v>125.8002017788958</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.57848345939391</v>
+        <v>113.7940070828432</v>
       </c>
       <c r="AD2" t="n">
-        <v>67529.39270250514</v>
+        <v>91942.80481557779</v>
       </c>
       <c r="AE2" t="n">
-        <v>92396.69428207802</v>
+        <v>125800.2017788958</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.123345373856033e-06</v>
+        <v>7.648697097794494e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.393229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>83578.4834593939</v>
+        <v>113794.0070828432</v>
       </c>
     </row>
     <row r="3">
@@ -12398,28 +12398,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>66.54335680135796</v>
+        <v>90.95676891443063</v>
       </c>
       <c r="AB3" t="n">
-        <v>91.04755646129531</v>
+        <v>124.4510639581131</v>
       </c>
       <c r="AC3" t="n">
-        <v>82.35810545869944</v>
+        <v>112.5736290821488</v>
       </c>
       <c r="AD3" t="n">
-        <v>66543.35680135796</v>
+        <v>90956.76891443062</v>
       </c>
       <c r="AE3" t="n">
-        <v>91047.55646129532</v>
+        <v>124451.0639581131</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.320188133818047e-06</v>
+        <v>7.942565759182464e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.158854166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>82358.10545869944</v>
+        <v>112573.6290821487</v>
       </c>
     </row>
   </sheetData>
